--- a/Danh sách Model.xlsx
+++ b/Danh sách Model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tailieu\HK5\Đồ Án 1\Gitclone\Do-An-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tailieu\HK5\DoAn\Gitclone\Do-An-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124BA90E-1C7A-4EAD-9519-FD37D93FCF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B967D062-F701-4B5E-A7CB-703D155CB905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Tên model</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve"> WLASL,  RWTH-PHOENIX-Weather 2014 T,  MS-ASL,  RWTH-PHOENIX-Weather 2014</t>
+  </si>
+  <si>
+    <t>eeee</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,11 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -510,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:R26"/>
+  <dimension ref="B4:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,295 +533,248 @@
     <col min="17" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>2023</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="2:17" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>2022</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="2:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="2:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>2024</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>2024</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>2023</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="M10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="M12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="M15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="M16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="M19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="M20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="M21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="M22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="M24" s="8"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="8"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="M26" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Danh sách Model.xlsx
+++ b/Danh sách Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tailieu\HK5\DoAn\Gitclone\Do-An-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B967D062-F701-4B5E-A7CB-703D155CB905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDA6FFD-0ABB-40D7-AFBE-AAD074E5D383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Tên model</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve"> WLASL,  RWTH-PHOENIX-Weather 2014 T,  MS-ASL,  RWTH-PHOENIX-Weather 2014</t>
-  </si>
-  <si>
-    <t>eeee</t>
   </si>
 </sst>
 </file>
@@ -512,7 +509,7 @@
   <dimension ref="B4:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,9 +630,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
